--- a/dersler.xlsx
+++ b/dersler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EFE\PycharmProjects\DersTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112ECB23-2CC2-48DA-9E2D-BE1311896DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBA732B-20E8-4A22-B904-925494246742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OgretimUyeleri" sheetId="1" r:id="rId1"/>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2258,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2585,7 +2585,7 @@
         <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">

--- a/dersler.xlsx
+++ b/dersler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EFE\PycharmProjects\DersTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBA732B-20E8-4A22-B904-925494246742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAA0676-DCAD-4B48-B8EE-CDBC18C738C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OgretimUyeleri" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="200">
   <si>
     <t>OgretimUyesi</t>
   </si>
@@ -989,7 +989,7 @@
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2256,10 +2256,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2267,9 +2267,10 @@
     <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2279,8 +2280,11 @@
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2290,8 +2294,11 @@
       <c r="C2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2301,8 +2308,11 @@
       <c r="C3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2312,8 +2322,11 @@
       <c r="C4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2336,11 @@
       <c r="C5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2350,11 @@
       <c r="C6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2345,8 +2364,11 @@
       <c r="C7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2356,8 +2378,11 @@
       <c r="C8" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2367,8 +2392,11 @@
       <c r="C9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2378,8 +2406,11 @@
       <c r="C10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2389,8 +2420,11 @@
       <c r="C11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2400,8 +2434,11 @@
       <c r="C12" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2411,8 +2448,11 @@
       <c r="C13" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2422,8 +2462,11 @@
       <c r="C14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2433,8 +2476,11 @@
       <c r="C15" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2444,8 +2490,11 @@
       <c r="C16" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2455,8 +2504,11 @@
       <c r="C17" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2466,8 +2518,11 @@
       <c r="C18" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2477,8 +2532,11 @@
       <c r="C19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2488,8 +2546,11 @@
       <c r="C20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2499,8 +2560,11 @@
       <c r="C21" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2510,8 +2574,11 @@
       <c r="C22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2521,8 +2588,11 @@
       <c r="C23" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -2532,8 +2602,11 @@
       <c r="C24" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2543,8 +2616,11 @@
       <c r="C25" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2554,8 +2630,11 @@
       <c r="C26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2565,8 +2644,11 @@
       <c r="C27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2576,8 +2658,11 @@
       <c r="C28" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -2585,10 +2670,13 @@
         <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -2598,8 +2686,11 @@
       <c r="C30" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -2609,8 +2700,11 @@
       <c r="C31" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -2620,8 +2714,11 @@
       <c r="C32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2631,8 +2728,11 @@
       <c r="C33" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2642,8 +2742,11 @@
       <c r="C34" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2653,8 +2756,11 @@
       <c r="C35" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -2664,8 +2770,11 @@
       <c r="C36" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -2675,8 +2784,11 @@
       <c r="C37" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2686,8 +2798,11 @@
       <c r="C38" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -2697,8 +2812,11 @@
       <c r="C39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2708,8 +2826,11 @@
       <c r="C40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2719,8 +2840,11 @@
       <c r="C41" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2730,8 +2854,11 @@
       <c r="C42" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2741,8 +2868,11 @@
       <c r="C43" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -2752,8 +2882,11 @@
       <c r="C44" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -2763,8 +2896,11 @@
       <c r="C45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2774,8 +2910,11 @@
       <c r="C46" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2785,8 +2924,11 @@
       <c r="C47" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2796,8 +2938,11 @@
       <c r="C48" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2807,8 +2952,11 @@
       <c r="C49" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2818,8 +2966,11 @@
       <c r="C50" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -2829,8 +2980,11 @@
       <c r="C51" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -2840,8 +2994,11 @@
       <c r="C52" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -2851,8 +3008,11 @@
       <c r="C53" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -2862,8 +3022,11 @@
       <c r="C54" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2873,8 +3036,11 @@
       <c r="C55" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -2884,8 +3050,11 @@
       <c r="C56" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2895,8 +3064,11 @@
       <c r="C57" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -2906,8 +3078,11 @@
       <c r="C58" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>108</v>
       </c>
@@ -2917,8 +3092,11 @@
       <c r="C59" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -2928,8 +3106,11 @@
       <c r="C60" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -2939,8 +3120,11 @@
       <c r="C61" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -2950,8 +3134,11 @@
       <c r="C62" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -2961,8 +3148,11 @@
       <c r="C63" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2972,8 +3162,11 @@
       <c r="C64" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2983,8 +3176,11 @@
       <c r="C65" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2994,8 +3190,11 @@
       <c r="C66" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -3005,8 +3204,11 @@
       <c r="C67" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3016,8 +3218,11 @@
       <c r="C68" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -3027,8 +3232,11 @@
       <c r="C69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -3038,8 +3246,11 @@
       <c r="C70" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -3049,8 +3260,11 @@
       <c r="C71" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -3060,8 +3274,11 @@
       <c r="C72" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -3071,8 +3288,11 @@
       <c r="C73" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -3082,8 +3302,11 @@
       <c r="C74" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -3093,8 +3316,11 @@
       <c r="C75" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -3104,8 +3330,11 @@
       <c r="C76" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -3115,8 +3344,11 @@
       <c r="C77" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>23</v>
       </c>
@@ -3126,8 +3358,11 @@
       <c r="C78" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>23</v>
       </c>
@@ -3137,8 +3372,11 @@
       <c r="C79" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>23</v>
       </c>
@@ -3148,8 +3386,11 @@
       <c r="C80" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -3159,8 +3400,11 @@
       <c r="C81" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -3170,8 +3414,11 @@
       <c r="C82" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -3181,8 +3428,11 @@
       <c r="C83" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -3192,8 +3442,11 @@
       <c r="C84" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -3203,8 +3456,11 @@
       <c r="C85" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -3214,8 +3470,11 @@
       <c r="C86" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -3225,8 +3484,11 @@
       <c r="C87" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -3236,8 +3498,11 @@
       <c r="C88" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -3247,8 +3512,11 @@
       <c r="C89" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -3258,8 +3526,11 @@
       <c r="C90" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -3269,8 +3540,11 @@
       <c r="C91" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -3280,8 +3554,11 @@
       <c r="C92" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -3291,8 +3568,11 @@
       <c r="C93" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -3302,8 +3582,11 @@
       <c r="C94" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -3313,8 +3596,11 @@
       <c r="C95" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -3324,8 +3610,11 @@
       <c r="C96" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -3335,8 +3624,11 @@
       <c r="C97" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -3346,8 +3638,11 @@
       <c r="C98" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -3357,8 +3652,11 @@
       <c r="C99" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -3368,8 +3666,11 @@
       <c r="C100" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -3379,8 +3680,11 @@
       <c r="C101" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -3390,8 +3694,11 @@
       <c r="C102" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -3401,8 +3708,11 @@
       <c r="C103" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -3412,8 +3722,11 @@
       <c r="C104" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -3423,8 +3736,11 @@
       <c r="C105" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -3434,8 +3750,11 @@
       <c r="C106" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -3445,8 +3764,11 @@
       <c r="C107" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -3456,8 +3778,11 @@
       <c r="C108" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>16</v>
       </c>
@@ -3467,8 +3792,11 @@
       <c r="C109" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -3478,8 +3806,11 @@
       <c r="C110" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -3489,8 +3820,11 @@
       <c r="C111" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -3500,8 +3834,11 @@
       <c r="C112" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -3511,8 +3848,11 @@
       <c r="C113" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -3522,8 +3862,11 @@
       <c r="C114" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -3533,8 +3876,11 @@
       <c r="C115" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -3544,8 +3890,11 @@
       <c r="C116" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -3555,8 +3904,11 @@
       <c r="C117" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -3566,8 +3918,11 @@
       <c r="C118" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -3577,8 +3932,11 @@
       <c r="C119" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -3588,8 +3946,11 @@
       <c r="C120" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -3599,8 +3960,11 @@
       <c r="C121" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -3610,8 +3974,11 @@
       <c r="C122" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -3621,8 +3988,11 @@
       <c r="C123" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -3632,8 +4002,11 @@
       <c r="C124" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -3643,8 +4016,11 @@
       <c r="C125" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -3654,8 +4030,11 @@
       <c r="C126" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -3664,6 +4043,9 @@
       </c>
       <c r="C127" t="s">
         <v>137</v>
+      </c>
+      <c r="D127">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
